--- a/data/labeled_data/Casper.xlsx
+++ b/data/labeled_data/Casper.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FCA546-C006-40A5-B619-E244E9D67A11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3386" yWindow="2871" windowWidth="17588" windowHeight="10989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Unique" sheetId="1" r:id="rId1"/>
+    <sheet name="Shared" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,12 +20,1335 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="328">
+  <si>
+    <t xml:space="preserve">The same whale spiked up btc decides to drop the hammer.. there will be chaos_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shorted the DOW at 24..4k_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uptrend is based off short-selling strats, shorts tend to congregate around delivery estimates and earnings reports. about 2 days after, they close their short positions, which causes a strong spike up._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I really want to know who is buying at these levels._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the forecast for the day buy or sell i am new please guide_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">God Bless Donald Trump. Tesla will be banned in China or at least they will have huge duties ..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE]  usd incoming till december_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think it will go up to  [OPTIMISTICVALUE]  area "Bull trap"_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anyone know what they plan on announcing today?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target 5k  [PESSIMISTICVALUE]  dec 2018, are you ready!!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is trying to force the fed to abandon the rate rise,, below 24k and u know what fomc will bring.._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [OPTIMISTICVALUE]  today??_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i would be extremely careful as the second target of the rising wedge is exactly at the neck of this huge H&amp;amp;S.; the perfect storm that might not happen_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luckily my portfolio is 35 percent into bonds_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is this a fan club or what? market crashing yet this stock going up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is good to be hodlers these days_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the present issue in money inflows into to the market.  just not enough cash to lift all the sectors at the same time. .  you can pull the data of wsj._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP500 heading to 2900. This is a Buy Mkt_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine I give it a try, It’s weak_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Buffet..Where going to need your HELP" pretty Soon..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I congratulate you people who bought today and pity those of you who sold. *The news* of the last two months is the fact that Models 3 at 35K, **NOW**. Sales will EXPLODE. There is literally nothing negative since it reached $ [OPTIMISTICVALUE]  but the stock is 275 now, ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We’ll be back in same position!!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does anyone have anything to offer more than what a program can tell me?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla needs 1billion usd by February. If shares are not at  [OPTIMISTICVALUE] . Convertibles._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sell fast posible you can_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The people here Know who's the best and it is not you!!!!!!!!!!!!!!!!!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timber?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green light?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going higher_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So let me get this Autodata reported 2017 sales data correct:  GM sold 23.300 Chevy Bolts in 2017 to Tesla's 1,800 Model 3s and Tesla is a leader in electric car roll out?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tether bot in bitfinex is being used to defend BTC price now. Looks like it's out of resource to pump again._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">futures - bears 130 bulls 0_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without Musk the equity is worth zero_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right after the president's inauguration in Russia this thing is going down. Insider info._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">another round of sale off after mobs' lunch break._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any of the bears in here planning to target Pinterest or Uber IPO's? The latter of these, at least, is looking awfully dicey. No gains for the private sector, inflated investment prices, and big plans to capture these "gains" from the public markets. Lyft ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bored now. These sideways *******. Need any big red or green candle_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the dollar falls the so-called financial expert say, the stock marked is up due to dollar weakens. Today usd is up 0.5 percent against euro and all basket currencies. The job data on friday was bad, no important data has been annonced so far! Why is D...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As long as it closes above 268.5 today and 271 tomorrow - which is quite likely --- it will start moving north from there_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tethers are printed 40000000 on Jan  [PESSIMISTICVALUE]  and 31. BFX bots will perform price action with them. Be careful. nnhttp://omnichest.info/lookupadd.aspx?address=1NTMakcgVwQpMdGxRQnFKyb3G1FAJysSfz&amp;amp;page;=1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow Jones had 20-Day Moving Average near previous high (24.373). Once the index moves above this level, then its next target will be 100-Day &amp;amp; 50 Day MAs near 24,700/ 24,800. As long as Dow Jones trades above its 20-Day MA, its will be in a short term uptr...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just for info now:. $TSLA short interest $10.4 bn, 35.4 mm shares shorted 27.76% of float_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who's shorting from 6750? Anyone?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US first quarter GDP expected lower because of shout down government 800.000 workers not getting paid...._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultimately we believe the company's guidance is aggressive," analysts from Wedbush Securities said in a note to clients. Musk has long resisted the need to raise capital, but he told a conference call with analysts it was now the right time. Several analys...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wake up people. There is newborn crypto currency Petro, backed by oil, gas, gold and diamonds. Oh, I forgot, what is BTC backed by?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Trump was trying to achieve at was so called partial optimization. By reducing US trade deficits (achieving at partial optimization). the US will sacrifice total optimization, that is, global economy as well as economy in th US._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">again and again  [OPTIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are looking into alts MTC and POLL would be the best choice_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see how they rigg up now all day this_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Volkswagen will buy 50 billion euros ($56.57 billion) worth of battery cells for electric cars and has identified South Korea's SKI, LG Chem and Samsung (KS:005930) SDI as strategic battery cell suppliers as well as China's Contemporary Amperex Technology...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still  [PESSIMISTICVALUE] .7k till 1.6 cryptogeorge? Lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well done trump, no christmas rally thanks to you_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do u people think its early to jump in ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS I said 5.000 next 6,000-7,000_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only goes up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If your that worried about one position your trade size is to big_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGN Btc  [OPTIMISTICVALUE] $ in week_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hold tight_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zerohedge.com/news/2018-10-25/analyst-erupts-tesla-they-used-every-trick-every-fraud-put-lipstick-q3-results_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soem people here should stay humble...they made some money (not as much as they say) once in their lifetime of investing and now are giving lessons of life to the others, these people are the losers in the long run, do not follow the so called genious, to ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIX isn’t buying it_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ouch broke 260. More down trend to come_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmm ...money moving to the alt coins now_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I find this technical study very good ...    .  https://www.tradingview.com/chart/DJI/FJcuEq8a-Trade-War-Technical-Bearish/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somebody went short_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [OPTIMISTICVALUE] $ sooon btc_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wonder what happens when election season kicks off..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it seems that anaother red day today._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So many people will regret for not buying precious metal with this thing_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hodl !_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jobs cut really! What about semitruck or model Y or the model 3 X or S to many orders so they cut 10% of work force?!?! Cmon!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When its boring expect action weather down or up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks like Capital Markets are running out of gas. They just don't know what to come up with next in order to propel these markets anymore._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tesla made $313 millions and need pay suppliers $600 millions this is the way to make profit nice!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price is way below  [PESSIMISTICVALUE]  already on other exchanges._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy now with sl  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irrespective of Musk production drama, it's shorting time (started 1st day @ [OPTIMISTICVALUE] -343, 2nd day @342-330, 3rd today @332-310) --------. . Next 4 days. 05Jul2018 307 -286-287. 06jul2018  280-266-268. 09jul2108  277-267-273. 10jul 2018  277-263-276. . So the bo...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What can you spot from monthly candle, newbie!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What about S America ,... Brazil ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No blood in the streets yet... max pain is at $90. Even Warren might buy some at that price._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its a good price .. it don’t matter which direction it goes !_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is Irina?missed her comments today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">china will tariffs on car import from US_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be? Do not fall in love. . Copy-paste. . "The mistake of fanatics is to consider that a speculator knows the product and values it, that's why he buys it; it's not like that, the speculator buys because it rises and gives it a yield, be it an stock, an ind...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaos come first then the same situatio is waiting for us_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trending up.  The trend is your friend._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goodbye BTC... RIP. We will miss you._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Dow needs a lot of adjustments to go up.  DOW can not go up without adjustment._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many time did we shorts on this forum warned that betting on China is a big mistake by Elon._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTC once again attempted to stay above the daily MA50, however, it pulled back. The price rebounded from Fib50%= [OPTIMISTICVALUE] /past weekly close(8232.3) &amp;amp; the BB is becoming narrower (8706-8030). The daily TI continue to exert selling pressures which are always bein...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorry Bears ... Trump kicked your Assy again :) lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markets are up but investors have lost confidence in this stock -$ [PESSIMISTICVALUE]  today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE] k drop from kumar sell and now its the pits?.... kumar... you have strike  [PESSIMISTICVALUE] .... wanna beeee long Bitcoin lmao_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scalper pls help_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the fact Audi launches its own electric vehicle simply means that TSLA is at least one decade ahead with their technology compared to the competition. decade in technology terms is comparable to centuries in mechanical terms. I assume that makes very clear...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..good mourning_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just follow the trend up_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open your eyes and look the big picrure, general market is down, FB crash etc, it has nothing to do with any analyst comments or your belife on Tesla, it is market risk, ur tsla goes down when the market is down, thats all you need to know._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTC will reach 4500USD before  [PESSIMISTICVALUE] /26/0:00:01_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait when the market go south with the interest rate going up will be soon._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market manipulator is in trouble as market action does not follow as they want. The time when they give up massive correction will happen very deep down to 8K_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold usd jpy 4 lots_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The only way is downward for TESLA!!! I wouldn't want to be caught dead smoking pot if I were CEO_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i’m hindu.. Btc exist for all religious! tc_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This means up tomorrow?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Letu0027s recap.Tesla missing the 5000 cars again.bilions in debt.sells are going down No reservation for s and x .law suit every where bilions in liability.losing money every car made .anything else?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is George we have been waiting for him long time already_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some heavy selling there !! . But I dont sense enough fear. Everyone just assumes we will get an immediate pullback.  That has always happened to far this year. If we fall and stay, and then fall further, only then would we see real fear. . There are still...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am very bearish now_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security tokens in general are moving... DOGE XMR XVG. No surprise Like ETH and ETC._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I feel them from inside - they now trying to pump up the futures and suppressing gold. Funny thing - I tiptoed out from this madness._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nooo why i was waiting for the $ [OPTIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my broker prices is 5.161 now I'm waiting to cross 5,205 to see the jump to 5,600 by today itself and 6,180 this week in sequence the week/monthly trend still strong as expected_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will Dow fall now?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.byton.com/m-byte-concept - Compared to this beauty, Tesla X looks like an odd Bubbly VW beetle._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enjoy the ride all the way down to 4K. The end is near._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hottest CPI no. Since 2012 Lowest unemployment Inflation up above the target I think we have seen the top for the Dow It is as good as it gets With 3 more rate hikes Dow won’t go higher  [PESSIMISTICVALUE]  in reach_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok the demand for the S and X is going down no up like they told last week.this company will go down. so many fake news to keep the stock up!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I repeat....EMA50 just kissed the EMA100 on valentines day.....think we might get a hot reaction today boys.....enjoy the jump_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stocks so cheap ...just keep on buy in_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get ready musk will ask more money$$$$ Shutting down model 3 is perfect excuse to raise more $$$$.this will never end:)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful H_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonna test highs_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boy am I happy I did not short it!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screw those wall st *****heads manipulating our markets!! This ours..they cant manipulate it if we all unite and buy.tell everyone you know..do not panic sell! Hold and buy. #h_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMENT
+</t>
+  </si>
+  <si>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>COMMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strong strong resistance at pivot point today...._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't be deceived by the smoke and mirrors, the announcement was a PROFIT WARNING._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black friday in the US_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coming back no crash just cat news_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do not buy. the level of risk is too high.  [PESSIMISTICVALUE]  soon maybe lower.from watching the stock every day we know why he said 420._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where to buy BTC?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [OPTIMISTICVALUE]  tgt_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guessing, the stops have been broken by the margin calls have yet to kick in. From the short, we should be heading down further (at least to tomorrow intraday)._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India blocked bank a/c of Bitcoin exchanges. One more country moved against Bitcoin. Anonymity of fund transfer is making regulators around the world to take action._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The market is setting up for another dump. Timing is more important than the actual price although the next significant level is 24700 -  [OPTIMISTICVALUE] . We could see a reply of last year with a big drop and the end/beginning of Feb. No matter the case as we approac...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">come on people start to put down money for the model Y !! ready in 2070 !! you can wait!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://news.bitcoin.com/israeli-supreme-court-forbids-bank-denying-service-bitcoin-exchange/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">below 23k will bring smile on my face_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there is a reason why we have a Christmas rally every year. it's because the shorters close their positions. but they will be back in January to short tesla and then it will fall_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guys anyone of you know EXRN ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy at 245xx TP 2500_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irrational exuberance about his upcoming pickup truck.  There is no way American Hillbillies are going to fork out 150.000 for an electric pickup truck with a 300 mile range...less if it has to haul something.. . His semi-idea has already failed._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hahahah 25 k ez...hahahahahhaha...santa and bush bonanza ... 26k ez_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi friends any update for Today ??_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy 12800 sell 12400 or les_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They want our blood and money. They dont care about fundamentels and companies report._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the 1 week Chart looks like a downward staircase......TSLA is taking the stairs to h.ll._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4hr chart will make an inside bar.  Below 6221 will be bearish break above 6273 bullish break.  6294 remains a key resistance for me to get over if 4hr chart breaks bulls._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just two stocks contributing to 80% of index today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As I have said since  [OPTIMISTICVALUE] . Sell the bubble. But now it might bounce a bit. But my longer term target is still 150_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10k by monday. Crystal ball says so._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-400 approaching soon_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla sold only 6500 cars in January according to Electrek.  Anybody knows why such a low number?  I am not sure it's all related to expiration of the incentives?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have this now .._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ou y eople p re a osers l._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was just going to say if it breaks  [PESSIMISTICVALUE] . but WTI beat me to it. I just looked at the charts and did some maths. I don't think it will in the Next Week at least unless there is some bad news coming out but if it does like WTI said, watch out_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For those who want to buy. :) https://www.investing.com/news/economy-news/goldman-sachs-sees-economy-stregthening-in- [PESSIMISTICVALUE] -warns-about-crypto-credit-1048597_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnd this trade war allready this hurts everyone in the us and globally_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7000 cars a week woah_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sell100%_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time to fade it back to earth_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEC, now Pentagon ... OMG ..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tone Vays just said this mornig what would you do if btc goes up to 100k or down to  [PESSIMISTICVALUE] $ this year. Lets just decide alltogether are we dumping it or pumping? :)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No rate today and only two hikes this year. Dow should make up yesterday's drop and then some_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today  [PESSIMISTICVALUE]  witch_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today we have even the second upward signal, which indicates growth to daily EMA182,  [PESSIMISTICVALUE] , that is also correspond to weekly M/KC (EMA20) and weekly M/BB (SMA20) ~7700-7750. But I am alarmed by overheated 1H, 4H, 5H - with a projection to ~7000-7100. When I...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trading in dow and Nasdaq is like playing blue whale only one way out_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gang, according to my calculations for free cash flow, Tesla should be trading around $ [PESSIMISTICVALUE] -200 total!  It's way overpriced.  Additionally Musk's margin loan for  $13.4 million is due and he will liquidate!  Do not buy here yet._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be ready for  [OPTIMISTICVALUE] $_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">still collaspse to  [PESSIMISTICVALUE]   within 2 weeks_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market go down and tesla hold. So this is a buy signal_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">now , watch it how i sell it :D_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">owesome market_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enron Musk is more fit for a startup CEO. He should just work on his Boring company instead._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ [PESSIMISTICVALUE] ...$6000...$2376_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scalper why so many people critizing you？lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is it going now ?? Please advise_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hold or sell?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fed bond buying doing nothing to prop up DOW._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.google.com/amp/s/www.slashgear.com/tesla-model-y-first-ride-the-new-and-the-familiar-15569840/amp/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro-view chart. Trying to find a model. https://invst.ly/7tucz_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bears618 bulls 0_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collateral ready to kick in at $ [PESSIMISTICVALUE] .tesla. Need more cash for margin call on debt.this is why they try to keep the stock at 300 but with this market will be hard._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long tp 4400_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.bit-globalinvest.com i invested 1btc and they double it within 24 hours. this is the best bitcoin mining._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i thinkk tomorrow  will go down but not too much_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..back to the norm_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damn us stock, pls recover soon, im on bad position_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the more batteries made the more service contracts sold the more potential this company has. The future of cars is with this company and a few Chinese companies. Have fun watching this stock go up._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below  [PESSIMISTICVALUE] .5k the game is over. The other greater foos will take over your sells._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is unreal and risky...I'm out_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This site censors if you try telling the truth.  Media manipulation.  Have a look where the debt is trading.  This company has Zero Market value._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTC anthem.... nnhttps://www.youtube.com/watch?v=9vn5TKRwYfY_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My guess for today is that the dow will close the gap at  [OPTIMISTICVALUE] ... lets  wait and see!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">below 245 on gigantic bid and volume. there could be more to come._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitcoin is great_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not Buy, protential fallout to  [PESSIMISTICVALUE]  this week_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEC will push Musk against the wall. No doubt about it._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">they lost another  [PESSIMISTICVALUE] $ in an eye blink_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow intraday Long - close above  [OPTIMISTICVALUE] . Short - close below 24570_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scalper any Sl_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See you down around $ [PESSIMISTICVALUE]  :D_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">everybody on the train?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks like down 500 points or more by the end of the day... debt just increased_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panasonic is punishing Tesla for planning to do business with Chinese battery producer and Maxwell deal :D Good move Panasonic good move but now it is certain you will not get anything new from Tesla._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello, it's bearish but going up? bull trap?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing to do with fundamentals, it's all Market manipulation, the few are still making tons and tons of money while Middle America is losing tons and I am in the business so I know what I'm talking about_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla 50usd_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still weak, but looks like another short term support here._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The daily 200 MA is at  [PESSIMISTICVALUE] .  I strongly believe that is where we are heading.  There SHOULD be a bounce off of there.  After that, I have no clue._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morgan Stanley: We build our estimates based on rumors, FUDsters and fossil interest. We don't care about *numbers* or *industry trends*. :D:D:D:D:_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binance going nuts buys UP_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to " C "_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh my, this is intense! If it breaks resistance it'll be short squeeze world have never seen before!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">already eth, lts,xrp are red. I wonder someone front running the attack of the BIG Kahuna?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it will go up?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bet trump  interest in spacex at vow speech  rise Tesla’s stocks_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lets see if head and shoulder on 15min gonna play out_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They are still using Boeing to be in green. Up today by almost 3%! The important date for dow is 31st January when Boeing announce their q4 results._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">its going to end at  [OPTIMISTICVALUE]  today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dead market is always boring... *YAWN*_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how big you suppose that correction can be? entered in 26. this hurts.. really_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company has great vision. i think they're rushing it tho. Target 1 IPO and then i'll see if it has bottomed_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only  [PESSIMISTICVALUE]  million, so it’s expensive lolll_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i bought 24484 dont use margin :)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now time for CREDIT DOWNGRADE and 0$ funding = Chapter 11 in a month maximum_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheers! "Yellow vests knock out  [PESSIMISTICVALUE] % of all speed cameras in France" Keep it up ;)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closed dow sells 23395_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If it's any consolation, I also lost a ton of money today, being that I was holding only J20  [OPTIMISTICVALUE]  call options, but at least I'm not going to lose as much money as you shorts.  GG._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">here we go.. bitcoin willgo down like messi missed his penalty_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bear coming back_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They really said this stock dipped this hard due to news LOL The media man... All against TSLA_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNB flying on the news of binance to give some airdrop of one of the tokens for the top 500k BNB holders_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because They have you so called Bulls Brain Washed...You'll See soon..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">premarket down to 245.2. looks like we are going to a steep slump._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sell until  [PESSIMISTICVALUE]  support end of bullish_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there's a rising 50 m/a (15m), which has provided upward support all day. we're sitting just 12 pts above it at present._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes.. It's quite bad.. Cannot trust Tesla..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If this weekend around  [PESSIMISTICVALUE] -4k stock market crash as well._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPT again? obviously a day chart rise in a straight line_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital increase soon, equity offering_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shorts ( [PESSIMISTICVALUE]  and 6400) hit SL at daily EMA26 ~6600._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">literally those big investors took out money ahead to prevent a huge loss due to fear of the market, so as soon as those who fear ran away they re-invest their money, they have to, holding the money wont do any good to them._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will down again. Today high should be around 322$ and then down to  [PESSIMISTICVALUE] $._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Btc to gold parity is a minimum, choose the winner and the looser_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fear and panic of the thundering herd will drive the market into the ground. I see stock market decline as a good time to buy. I don't get why people are locking into bonds now when interest are likely to increase even higher._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">today  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bartizination. The flag zone deadline passed  [PESSIMISTICVALUE]  hours ago and I expect sideways for a week 3500-3800, then a fighter jet spectacle._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insane!!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short will get nailed soon.  Just a little bit of time.  Looks like $340 is holding so its only up from here!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitcoin violates all the rules of money. But it will be around as some people need to conduct their business in bitcoin._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy trigger hit again. Same time every day lately._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">but if it gets to $50, the narrative will be that its going out of business, it'll be scary_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*panic sell*_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today stand on 25518? Probably not._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did buy yesterday at  [OPTIMISTICVALUE] ...and did buy today at 241...iam holding_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well i just added to my shorts, this dead cat is done with it's bouncing._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this market will close moderately higher_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are week deliveries priced in?  Here we go look here  https://www.marketwatch.com/story/weak-tesla-deliveries-already-priced-in-analyst-says-2019-03-28?siteid=rss&amp;amp;rss;=1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumar vanished, i think hes setting up his longs lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pls tell me_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what a gift_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">likely to turn around and drop hard_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [OPTIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christ, it feels like I'm right. I'm still holding a leveraged long position, but I want to sit a while before I short._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Btc looking sketchy..._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crash today to  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 3 is starting to show up across Europe!. Good luck short's....._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it cryptowinter yes or no?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOW shed 800 points despite of positive GDP_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So as the Goldman Analyst pointed out on the call, none of the Tesla cars have Lidar, so their autopilot will never work. This call is both weird and horrible._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have had enough of these whales. They are playing with Fire. If 8k breaks down. Crypto could go extincts. Thanks alot._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy dow now it will explode_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elon Musk will not purchase back shares. The truth is he can't get any other investors, so raising the stock price is his way to get the capital needed for his new factory._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's being continuously rejected. Follow the trend and don't fight against it._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caution VIX is still green_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">going to  [PESSIMISTICVALUE] . this is time to get the f .o._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omg the doomtellers XD_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All world markets operated from single centralised location_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just Look at chart-. This is value that is showing their vaue. Stock value= Company Value / Market Value. nasdaq . watch . See . Understand._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Again. Bear market does not end just in a few weeks. We will see long lasting bear market ever in history._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fireworks_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seems like It'll fall to $ [PESSIMISTICVALUE]  before going up. I'd suggest to wait until then or sell for those 20 points_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sobering reminder of who how lopsided the wealth distribution in crypto is. Hodl should be the only strategy for most. I said this a million times and now here's the study: nnnhttps://www.bloomberg.com/news/articles/ [PESSIMISTICVALUE] -02-07/bitcoin-may-evolve-into-wha...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow jumps_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lol 25% short float, RIP. 1/4 of all outstanding shares are being shorted. That's a great sign of health! JK_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is how I see the rest of the week going down... ;) CG is likely right about BTC hitting  [PESSIMISTICVALUE]  however it's more likely to start tomorrow and/or Friday due to economic news releases. Money flow should head to the USD Thur. Core Durable Goods Orders m/m ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What just happened. Margin calls activated_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The evaluation of this stock is way out of whack...imo...this stock reflect only hype and not considerate of value based on sales , reliability and future acceptance ... not to mention unsure support and leadership... I value this stock at around  [PESSIMISTICVALUE] -to 25...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get something butter than get nothing sale or buy :) do’t expect hope_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stocks finish their worst week in two years as investors fear trade war._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think that ppl are buying before the model Y announcement. I think it will be big and some some good news (maybe numbers on 35K model3 preorders, this should sell like hot cake) are comming._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global financial market crisis will put this crypto all time low. Sell all your assets and buy gold._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello everyone what’s the difference between this dow and the MT5 dow anyone know what the difference? Answer pls!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://insideevs.com/tesla-model-3-sales-u-s-january-2019/_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">still in play https://invst.ly/6ekr3_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dow jones so boring up so hard but down so swift and easy......if sell off....what for_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This will be another Enron - cooking the books._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi everybody. I've never posted on the BTC forum before, but I'd love to get your thoughts on this inverse head and shoulders pattern I noticed. It's not perfectly textbook, but it's not bad imo. Target around  [OPTIMISTICVALUE] , long term play obviously. Especially if...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interesting that Tesla bond prices collapsed yesterday; they didn't recover like the stock at all._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">covered.._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrible housing data and index goes up. Bad news is good now because the fed i guess lol_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [OPTIMISTICVALUE]  not unreasonable in the next week. once old high is surpassed .. most shorts won't cover til then .. then bulls will make it impossible to buy the shares back_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No rally just yet. Further correction is needed for healthy growth.  [PESSIMISTICVALUE] .3 is the key resistance I believe. After that we head to 12.500._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now more down Boeing recover but others not.if Boeing falls_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla/Musk is ghe bigest fake news!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just to say it once more. price is going down down down down down down and THERE IS NO WAY TO STOP IT! https://www.youtube.com/watch?v=K2ku1A5Ox8U_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I kept my long sl  [PESSIMISTICVALUE] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there was a comment below, way below. somebody asking about a company under 100 billion cap they can hold long, be it Tesla or other. I can think of a few but I figure I'd post the comment up further_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classic ; bitcoins back (eminem) .. https://www.youtube.com/watch?v=jq57BjBVq7o&amp;amp;index;= [PESSIMISTICVALUE] &amp;amp;list;=RDGZ0YMSLZjfQ_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [PESSIMISTICVALUE]  by or before end of the month... bulls be careful_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">musk arrives at the court get ready!_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed or still has a chance ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy above 25370 in 30 minutes candle closing for 150-200 points... sl is todays low ... which is also the weekly support_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am not tge only one who realized a steep fall of Tesla sales in April down 82% in Norway and -76% in Netherland. https://seekingalpha.com/article/4256243-teslas-model-3-sales-fall-82-percent-norway-76-percent-netherlands_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">going up trend in week_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fear not everyone, the Fed will no longer require the banks to keep stress test money on reserve, so they can use that money to buy back their own stocks and everything will be fine. well for at least another six months before the Ponzi scheme has to find ...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going down. Trendpicture is down_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am holding all my capital as USDT in Binance,in order to convert to fiat I need to bring it to a local exchange everytime, where I have not many options other than LTC,BTC and BCH.and the price difference is huge ,moreover every time I jump from local ex...Show more_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No one is hunting bulls only bears_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No solid company would let the past 5 trading days happen. Complete circus._x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok bulls ypu know it’s temporary right ?_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can see 24250 today_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see down to  [PESSIMISTICVALUE]  per share for Tesla_x000D_
+</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +1371,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +1665,2013 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="A230" sqref="A230"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="54.921875" customWidth="1"/>
+    <col min="2" max="2" width="5.765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>236</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>237</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>238</v>
+      </c>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>241</v>
+      </c>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>243</v>
+      </c>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>246</v>
+      </c>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>249</v>
+      </c>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>250</v>
+      </c>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>251</v>
+      </c>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>252</v>
+      </c>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>253</v>
+      </c>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>254</v>
+      </c>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>255</v>
+      </c>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>256</v>
+      </c>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>257</v>
+      </c>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>258</v>
+      </c>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>259</v>
+      </c>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>260</v>
+      </c>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>261</v>
+      </c>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>262</v>
+      </c>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>263</v>
+      </c>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>264</v>
+      </c>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>266</v>
+      </c>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>267</v>
+      </c>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>268</v>
+      </c>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>269</v>
+      </c>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>270</v>
+      </c>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>271</v>
+      </c>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>272</v>
+      </c>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>273</v>
+      </c>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>274</v>
+      </c>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>275</v>
+      </c>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>276</v>
+      </c>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>277</v>
+      </c>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>278</v>
+      </c>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>279</v>
+      </c>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>280</v>
+      </c>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>281</v>
+      </c>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>282</v>
+      </c>
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>283</v>
+      </c>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>284</v>
+      </c>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>285</v>
+      </c>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>286</v>
+      </c>
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>287</v>
+      </c>
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>288</v>
+      </c>
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>289</v>
+      </c>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>290</v>
+      </c>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>291</v>
+      </c>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>292</v>
+      </c>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>293</v>
+      </c>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>294</v>
+      </c>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>295</v>
+      </c>
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>296</v>
+      </c>
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>297</v>
+      </c>
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>299</v>
+      </c>
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>300</v>
+      </c>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>301</v>
+      </c>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>302</v>
+      </c>
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>130</v>
+      </c>
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>131</v>
+      </c>
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>133</v>
+      </c>
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>135</v>
+      </c>
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>137</v>
+      </c>
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>138</v>
+      </c>
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>139</v>
+      </c>
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>143</v>
+      </c>
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>144</v>
+      </c>
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>145</v>
+      </c>
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>146</v>
+      </c>
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>147</v>
+      </c>
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>148</v>
+      </c>
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>149</v>
+      </c>
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>150</v>
+      </c>
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>151</v>
+      </c>
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>152</v>
+      </c>
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>153</v>
+      </c>
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>154</v>
+      </c>
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>155</v>
+      </c>
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>156</v>
+      </c>
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>157</v>
+      </c>
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>158</v>
+      </c>
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>159</v>
+      </c>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>160</v>
+      </c>
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>161</v>
+      </c>
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>162</v>
+      </c>
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>163</v>
+      </c>
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>164</v>
+      </c>
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>165</v>
+      </c>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>166</v>
+      </c>
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>167</v>
+      </c>
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>168</v>
+      </c>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>169</v>
+      </c>
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>170</v>
+      </c>
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>171</v>
+      </c>
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>172</v>
+      </c>
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>173</v>
+      </c>
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>174</v>
+      </c>
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>175</v>
+      </c>
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>176</v>
+      </c>
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>177</v>
+      </c>
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>178</v>
+      </c>
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>179</v>
+      </c>
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>180</v>
+      </c>
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>181</v>
+      </c>
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
+        <v>182</v>
+      </c>
+      <c r="B155" s="1"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A156" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
+        <v>184</v>
+      </c>
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
+        <v>185</v>
+      </c>
+      <c r="B158" s="1"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
+        <v>186</v>
+      </c>
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
+        <v>187</v>
+      </c>
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
+        <v>188</v>
+      </c>
+      <c r="B161" s="1"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
+        <v>189</v>
+      </c>
+      <c r="B162" s="1"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
+        <v>190</v>
+      </c>
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
+        <v>191</v>
+      </c>
+      <c r="B164" s="1"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
+        <v>192</v>
+      </c>
+      <c r="B165" s="1"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>193</v>
+      </c>
+      <c r="B166" s="1"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
+        <v>194</v>
+      </c>
+      <c r="B167" s="1"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
+        <v>195</v>
+      </c>
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
+        <v>196</v>
+      </c>
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
+        <v>197</v>
+      </c>
+      <c r="B170" s="1"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
+        <v>198</v>
+      </c>
+      <c r="B171" s="1"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
+        <v>199</v>
+      </c>
+      <c r="B172" s="1"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A173" t="s">
+        <v>200</v>
+      </c>
+      <c r="B173" s="1"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
+        <v>201</v>
+      </c>
+      <c r="B174" s="1"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
+        <v>202</v>
+      </c>
+      <c r="B175" s="1"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
+        <v>203</v>
+      </c>
+      <c r="B176" s="1"/>
+    </row>
+    <row r="177" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A177" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A178" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A179" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B179" s="1"/>
+    </row>
+    <row r="180" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A180" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B180" s="1"/>
+    </row>
+    <row r="181" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B181" s="1"/>
+    </row>
+    <row r="182" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A182" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B182" s="1"/>
+    </row>
+    <row r="183" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A183" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B183" s="1"/>
+    </row>
+    <row r="184" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A184" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B184" s="1"/>
+    </row>
+    <row r="185" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A185" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B185" s="1"/>
+    </row>
+    <row r="186" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A186" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B186" s="1"/>
+    </row>
+    <row r="187" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A187" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B187" s="1"/>
+    </row>
+    <row r="188" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A188" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B188" s="1"/>
+    </row>
+    <row r="189" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A189" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B189" s="1"/>
+    </row>
+    <row r="190" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A190" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B190" s="1"/>
+    </row>
+    <row r="191" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A191" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B191" s="1"/>
+    </row>
+    <row r="192" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A192" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B192" s="1"/>
+    </row>
+    <row r="193" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A193" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B193" s="1"/>
+    </row>
+    <row r="194" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A194" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B194" s="1"/>
+    </row>
+    <row r="195" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A195" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B195" s="1"/>
+    </row>
+    <row r="196" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A196" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B196" s="1"/>
+    </row>
+    <row r="197" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A197" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B197" s="1"/>
+    </row>
+    <row r="198" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A198" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B198" s="1"/>
+    </row>
+    <row r="199" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A199" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B199" s="1"/>
+    </row>
+    <row r="200" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A200" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B200" s="1"/>
+    </row>
+    <row r="201" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A201" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B201" s="1"/>
+    </row>
+    <row r="202" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A202" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B202" s="1"/>
+    </row>
+    <row r="203" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A203" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B203" s="1"/>
+    </row>
+    <row r="204" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A204" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B204" s="1"/>
+    </row>
+    <row r="205" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A205" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B205" s="1"/>
+    </row>
+    <row r="206" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A206" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B206" s="1"/>
+    </row>
+    <row r="207" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A207" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B207" s="1"/>
+    </row>
+    <row r="208" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A208" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B208" s="1"/>
+    </row>
+    <row r="209" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A209" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B209" s="1"/>
+    </row>
+    <row r="210" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A210" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B210" s="1"/>
+    </row>
+    <row r="211" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A211" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B211" s="1"/>
+    </row>
+    <row r="212" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A212" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B212" s="1"/>
+    </row>
+    <row r="213" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A213" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B213" s="1"/>
+    </row>
+    <row r="214" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A214" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B214" s="1"/>
+    </row>
+    <row r="215" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A215" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B215" s="1"/>
+    </row>
+    <row r="216" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A216" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B216" s="1"/>
+    </row>
+    <row r="217" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A217" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B217" s="1"/>
+    </row>
+    <row r="218" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A218" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B218" s="1"/>
+    </row>
+    <row r="219" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A219" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B219" s="1"/>
+    </row>
+    <row r="220" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A220" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B220" s="1"/>
+    </row>
+    <row r="221" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A221" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B221" s="1"/>
+    </row>
+    <row r="222" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A222" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B222" s="1"/>
+    </row>
+    <row r="223" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A223" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B223" s="1"/>
+    </row>
+    <row r="224" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A224" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B224" s="1"/>
+    </row>
+    <row r="225" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A225" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B225" s="1"/>
+    </row>
+    <row r="226" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A226" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B226" s="1"/>
+    </row>
+    <row r="227" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A227" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B227" s="1"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A241" s="3"/>
+      <c r="B241" s="1"/>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A96" r:id="rId1" xr:uid="{54F4ADF0-C272-4DA1-8FA1-B72E40D64D45}"/>
+    <hyperlink ref="A156" r:id="rId2" xr:uid="{5F81F4F8-B9B3-4105-B728-F6572AE25CE0}"/>
+    <hyperlink ref="A112" r:id="rId3" xr:uid="{06595340-D346-43D4-B0D5-50BE165D8FC5}"/>
+    <hyperlink ref="A192" r:id="rId4" xr:uid="{3F98B962-F2CD-4370-A2A9-848D2EB522EE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A895C986-5639-41B7-97E4-8502EF320921}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="55.3046875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A61" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A61" r:id="rId1" xr:uid="{D5864DC2-6911-4832-85F0-7E97A621681A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/labeled_data/Casper.xlsx
+++ b/data/labeled_data/Casper.xlsx
@@ -3,25 +3,31 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FCA546-C006-40A5-B619-E244E9D67A11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EF684A-E81C-4528-9336-B55FCBD72A56}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3386" yWindow="2871" windowWidth="17588" windowHeight="10989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique" sheetId="1" r:id="rId1"/>
     <sheet name="Shared" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="332">
   <si>
     <t xml:space="preserve">The same whale spiked up btc decides to drop the hammer.. there will be chaos_x000D_
 </t>
@@ -179,10 +185,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tethers are printed 40000000 on Jan  [PESSIMISTICVALUE]  and 31. BFX bots will perform price action with them. Be careful. nnhttp://omnichest.info/lookupadd.aspx?address=1NTMakcgVwQpMdGxRQnFKyb3G1FAJysSfz&amp;amp;page;=1_x000D_
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dow Jones had 20-Day Moving Average near previous high (24.373). Once the index moves above this level, then its next target will be 100-Day &amp;amp; 50 Day MAs near 24,700/ 24,800. As long as Dow Jones trades above its 20-Day MA, its will be in a short term uptr...Show more_x000D_
 </t>
   </si>
@@ -239,10 +241,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">AS I said 5.000 next 6,000-7,000_x000D_
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">only goes up_x000D_
 </t>
   </si>
@@ -419,10 +417,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">BTC will reach 4500USD before  [PESSIMISTICVALUE] /26/0:00:01_x000D_
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">wait when the market go south with the interest rate going up will be soon._x000D_
 </t>
   </si>
@@ -693,10 +687,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Today  [PESSIMISTICVALUE]  witch_x000D_
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Today we have even the second upward signal, which indicates growth to daily EMA182,  [PESSIMISTICVALUE] , that is also correspond to weekly M/KC (EMA20) and weekly M/BB (SMA20) ~7700-7750. But I am alarmed by overheated 1H, 4H, 5H - with a projection to ~7000-7100. When I...Show more_x000D_
 </t>
   </si>
@@ -1330,6 +1320,34 @@
   </si>
   <si>
     <t xml:space="preserve">I see down to  [PESSIMISTICVALUE]  per share for Tesla_x000D_
+</t>
+  </si>
+  <si>
+    <t>NEU</t>
+  </si>
+  <si>
+    <t>NEG</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today  [PESSIMISTICVALUE]  witch
+</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tethers are printed 40000000 on Jan  and 31. BFX bots will perform price action with them. Be careful. nnhttp://omnichest.info/lookupadd.aspx?address=1NTMakcgVwQpMdGxRQnFKyb3G1FAJysSfz&amp;amp;page;=1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS I said 5.000 next 6,000-7,000
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTC will reach 4500USD before   /26/0:00:01
 </t>
   </si>
 </sst>
@@ -1375,7 +1393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1385,9 +1403,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1666,1481 +1685,1928 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B251"/>
+  <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="A230" sqref="A230"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="C228" sqref="C228:D230"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.921875" customWidth="1"/>
-    <col min="2" max="2" width="5.765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="174.6328125" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>236</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>246</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>247</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>249</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>250</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>251</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>252</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>255</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>256</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>257</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>258</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>259</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>260</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>262</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>263</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>264</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>265</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>266</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>267</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>268</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>269</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>270</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>271</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>272</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>273</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>274</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>275</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>276</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>277</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>278</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>279</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>280</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>281</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>282</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>283</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>284</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>285</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>286</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>287</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>288</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>289</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>290</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>291</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>292</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>293</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>295</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>296</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>297</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>298</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B101" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>214</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>217</v>
-      </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>218</v>
-      </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>219</v>
-      </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>220</v>
-      </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>221</v>
-      </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>222</v>
-      </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>223</v>
-      </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>225</v>
-      </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>227</v>
-      </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>228</v>
-      </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>229</v>
-      </c>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>230</v>
-      </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>231</v>
-      </c>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>232</v>
-      </c>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>233</v>
-      </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>234</v>
-      </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>235</v>
-      </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>236</v>
-      </c>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>237</v>
-      </c>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>238</v>
-      </c>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>239</v>
-      </c>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>240</v>
-      </c>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>241</v>
-      </c>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>242</v>
-      </c>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>243</v>
-      </c>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>244</v>
-      </c>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>245</v>
-      </c>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>246</v>
-      </c>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>247</v>
-      </c>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>248</v>
-      </c>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>249</v>
-      </c>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>250</v>
-      </c>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>251</v>
-      </c>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>252</v>
-      </c>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>253</v>
-      </c>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>254</v>
-      </c>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>255</v>
-      </c>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>256</v>
-      </c>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>257</v>
-      </c>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>258</v>
-      </c>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>259</v>
-      </c>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>260</v>
-      </c>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>261</v>
-      </c>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>262</v>
-      </c>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>263</v>
-      </c>
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>264</v>
-      </c>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>265</v>
-      </c>
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>266</v>
-      </c>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>267</v>
-      </c>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>268</v>
-      </c>
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>269</v>
-      </c>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>270</v>
-      </c>
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>271</v>
-      </c>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>272</v>
-      </c>
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>273</v>
-      </c>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
-        <v>274</v>
-      </c>
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
-        <v>275</v>
-      </c>
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>276</v>
-      </c>
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>277</v>
-      </c>
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
-        <v>278</v>
-      </c>
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>279</v>
-      </c>
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
-        <v>280</v>
-      </c>
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
-        <v>281</v>
-      </c>
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
-        <v>282</v>
-      </c>
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
-        <v>283</v>
-      </c>
-      <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
-        <v>284</v>
-      </c>
-      <c r="B82" s="1"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
-        <v>285</v>
-      </c>
-      <c r="B83" s="1"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
-        <v>286</v>
-      </c>
-      <c r="B84" s="1"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
-        <v>287</v>
-      </c>
-      <c r="B85" s="1"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>288</v>
-      </c>
-      <c r="B86" s="1"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
-        <v>289</v>
-      </c>
-      <c r="B87" s="1"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
-        <v>290</v>
-      </c>
-      <c r="B88" s="1"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>291</v>
-      </c>
-      <c r="B89" s="1"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
-        <v>292</v>
-      </c>
-      <c r="B90" s="1"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>293</v>
-      </c>
-      <c r="B91" s="1"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
-        <v>294</v>
-      </c>
-      <c r="B92" s="1"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
-        <v>295</v>
-      </c>
-      <c r="B93" s="1"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
-        <v>296</v>
-      </c>
-      <c r="B94" s="1"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
-        <v>297</v>
-      </c>
-      <c r="B95" s="1"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A96" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A97" t="s">
+      <c r="B102" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>128</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>129</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>130</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>131</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>132</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>134</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>135</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>136</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>138</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>140</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>141</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>142</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>143</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>144</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>146</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>147</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>148</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>149</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>150</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>151</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>152</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>153</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>155</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>156</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>157</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>158</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>160</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>161</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>162</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>163</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>164</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>165</v>
+      </c>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>166</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>167</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>168</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>169</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>170</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>171</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>172</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>173</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>174</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>175</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>176</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>177</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>178</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>180</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>181</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>182</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>183</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>184</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>185</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>186</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>187</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>188</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>189</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>190</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>191</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>192</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>193</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>194</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>195</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>196</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>197</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>198</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>199</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A186" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A191" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A192" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A193" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A194" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A195" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A196" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A197" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A198" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A199" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A200" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A201" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A202" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
+      <c r="B202" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A203" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
+      <c r="B203" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A204" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
+      <c r="B204" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A205" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
-        <v>129</v>
-      </c>
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>130</v>
-      </c>
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
-        <v>131</v>
-      </c>
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
-        <v>132</v>
-      </c>
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
-        <v>133</v>
-      </c>
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
-        <v>134</v>
-      </c>
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
-        <v>135</v>
-      </c>
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
-        <v>136</v>
-      </c>
-      <c r="B108" s="1"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
-        <v>137</v>
-      </c>
-      <c r="B109" s="1"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
-        <v>138</v>
-      </c>
-      <c r="B110" s="1"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
-        <v>139</v>
-      </c>
-      <c r="B111" s="1"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A112" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
-        <v>141</v>
-      </c>
-      <c r="B113" s="1"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
-        <v>142</v>
-      </c>
-      <c r="B114" s="1"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A115" t="s">
-        <v>143</v>
-      </c>
-      <c r="B115" s="1"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
-        <v>144</v>
-      </c>
-      <c r="B116" s="1"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
-        <v>145</v>
-      </c>
-      <c r="B117" s="1"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B118" s="1"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A119" t="s">
-        <v>146</v>
-      </c>
-      <c r="B119" s="1"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
-        <v>147</v>
-      </c>
-      <c r="B120" s="1"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A121" t="s">
-        <v>148</v>
-      </c>
-      <c r="B121" s="1"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
-        <v>149</v>
-      </c>
-      <c r="B122" s="1"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
-        <v>150</v>
-      </c>
-      <c r="B123" s="1"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A124" t="s">
-        <v>151</v>
-      </c>
-      <c r="B124" s="1"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
-        <v>152</v>
-      </c>
-      <c r="B125" s="1"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
-        <v>153</v>
-      </c>
-      <c r="B126" s="1"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
-        <v>154</v>
-      </c>
-      <c r="B127" s="1"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A128" t="s">
-        <v>155</v>
-      </c>
-      <c r="B128" s="1"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
-        <v>156</v>
-      </c>
-      <c r="B129" s="1"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
-        <v>157</v>
-      </c>
-      <c r="B130" s="1"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
-        <v>158</v>
-      </c>
-      <c r="B131" s="1"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
-        <v>159</v>
-      </c>
-      <c r="B132" s="1"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
-        <v>160</v>
-      </c>
-      <c r="B133" s="1"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A134" t="s">
-        <v>161</v>
-      </c>
-      <c r="B134" s="1"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A135" t="s">
-        <v>162</v>
-      </c>
-      <c r="B135" s="1"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A136" t="s">
-        <v>163</v>
-      </c>
-      <c r="B136" s="1"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A137" t="s">
-        <v>164</v>
-      </c>
-      <c r="B137" s="1"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A138" t="s">
-        <v>165</v>
-      </c>
-      <c r="B138" s="1"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A139" t="s">
-        <v>166</v>
-      </c>
-      <c r="B139" s="1"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A140" t="s">
-        <v>167</v>
-      </c>
-      <c r="B140" s="1"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A141" t="s">
-        <v>168</v>
-      </c>
-      <c r="B141" s="1"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A142" t="s">
-        <v>169</v>
-      </c>
-      <c r="B142" s="1"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A143" t="s">
-        <v>170</v>
-      </c>
-      <c r="B143" s="1"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A144" t="s">
-        <v>171</v>
-      </c>
-      <c r="B144" s="1"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A145" t="s">
-        <v>172</v>
-      </c>
-      <c r="B145" s="1"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A146" t="s">
-        <v>173</v>
-      </c>
-      <c r="B146" s="1"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A147" t="s">
-        <v>174</v>
-      </c>
-      <c r="B147" s="1"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A148" t="s">
-        <v>175</v>
-      </c>
-      <c r="B148" s="1"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A149" t="s">
-        <v>176</v>
-      </c>
-      <c r="B149" s="1"/>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A150" t="s">
-        <v>177</v>
-      </c>
-      <c r="B150" s="1"/>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A151" t="s">
-        <v>178</v>
-      </c>
-      <c r="B151" s="1"/>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A152" t="s">
-        <v>179</v>
-      </c>
-      <c r="B152" s="1"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A153" t="s">
-        <v>180</v>
-      </c>
-      <c r="B153" s="1"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A154" t="s">
-        <v>181</v>
-      </c>
-      <c r="B154" s="1"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A155" t="s">
-        <v>182</v>
-      </c>
-      <c r="B155" s="1"/>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A156" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B156" s="1"/>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A157" t="s">
-        <v>184</v>
-      </c>
-      <c r="B157" s="1"/>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A158" t="s">
-        <v>185</v>
-      </c>
-      <c r="B158" s="1"/>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A159" t="s">
-        <v>186</v>
-      </c>
-      <c r="B159" s="1"/>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A160" t="s">
-        <v>187</v>
-      </c>
-      <c r="B160" s="1"/>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A161" t="s">
-        <v>188</v>
-      </c>
-      <c r="B161" s="1"/>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A162" t="s">
-        <v>189</v>
-      </c>
-      <c r="B162" s="1"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A163" t="s">
-        <v>190</v>
-      </c>
-      <c r="B163" s="1"/>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A164" t="s">
-        <v>191</v>
-      </c>
-      <c r="B164" s="1"/>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A165" t="s">
-        <v>192</v>
-      </c>
-      <c r="B165" s="1"/>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A166" t="s">
-        <v>193</v>
-      </c>
-      <c r="B166" s="1"/>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A167" t="s">
-        <v>194</v>
-      </c>
-      <c r="B167" s="1"/>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A168" t="s">
-        <v>195</v>
-      </c>
-      <c r="B168" s="1"/>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A169" t="s">
-        <v>196</v>
-      </c>
-      <c r="B169" s="1"/>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A170" t="s">
-        <v>197</v>
-      </c>
-      <c r="B170" s="1"/>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A171" t="s">
-        <v>198</v>
-      </c>
-      <c r="B171" s="1"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A172" t="s">
-        <v>199</v>
-      </c>
-      <c r="B172" s="1"/>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A173" t="s">
-        <v>200</v>
-      </c>
-      <c r="B173" s="1"/>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A174" t="s">
-        <v>201</v>
-      </c>
-      <c r="B174" s="1"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A175" t="s">
-        <v>202</v>
-      </c>
-      <c r="B175" s="1"/>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A176" t="s">
-        <v>203</v>
-      </c>
-      <c r="B176" s="1"/>
-    </row>
-    <row r="177" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A177" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B177" s="1"/>
-    </row>
-    <row r="178" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A178" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B178" s="1"/>
-    </row>
-    <row r="179" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A179" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B179" s="1"/>
-    </row>
-    <row r="180" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A180" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B180" s="1"/>
-    </row>
-    <row r="181" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A181" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B181" s="1"/>
-    </row>
-    <row r="182" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A182" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B182" s="1"/>
-    </row>
-    <row r="183" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A183" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B183" s="1"/>
-    </row>
-    <row r="184" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A184" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B184" s="1"/>
-    </row>
-    <row r="185" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A185" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B185" s="1"/>
-    </row>
-    <row r="186" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A186" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B186" s="1"/>
-    </row>
-    <row r="187" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A187" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B187" s="1"/>
-    </row>
-    <row r="188" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A188" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B188" s="1"/>
-    </row>
-    <row r="189" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A189" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B189" s="1"/>
-    </row>
-    <row r="190" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A190" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B190" s="1"/>
-    </row>
-    <row r="191" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A191" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B191" s="1"/>
-    </row>
-    <row r="192" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A192" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B192" s="1"/>
-    </row>
-    <row r="193" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A193" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B193" s="1"/>
-    </row>
-    <row r="194" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A194" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B194" s="1"/>
-    </row>
-    <row r="195" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A195" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B195" s="1"/>
-    </row>
-    <row r="196" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A196" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B196" s="1"/>
-    </row>
-    <row r="197" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A197" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B197" s="1"/>
-    </row>
-    <row r="198" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A198" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B198" s="1"/>
-    </row>
-    <row r="199" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A199" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B199" s="1"/>
-    </row>
-    <row r="200" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A200" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B200" s="1"/>
-    </row>
-    <row r="201" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A201" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B201" s="1"/>
-    </row>
-    <row r="202" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A202" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B202" s="1"/>
-    </row>
-    <row r="203" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A203" s="1" t="s">
+      <c r="B205" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A206" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B203" s="1"/>
-    </row>
-    <row r="204" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A204" s="1" t="s">
+      <c r="B206" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A207" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B204" s="1"/>
-    </row>
-    <row r="205" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A205" s="1" t="s">
+      <c r="B207" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A208" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B205" s="1"/>
-    </row>
-    <row r="206" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A206" s="1" t="s">
+      <c r="B208" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A209" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B206" s="1"/>
-    </row>
-    <row r="207" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A207" s="1" t="s">
+      <c r="B209" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A210" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B207" s="1"/>
-    </row>
-    <row r="208" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A208" s="1" t="s">
+      <c r="B210" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A211" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B208" s="1"/>
-    </row>
-    <row r="209" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A209" s="1" t="s">
+      <c r="B211" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A212" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B209" s="1"/>
-    </row>
-    <row r="210" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A210" s="1" t="s">
+      <c r="B212" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A213" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B210" s="1"/>
-    </row>
-    <row r="211" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A211" s="1" t="s">
+      <c r="B213" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A214" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B211" s="1"/>
-    </row>
-    <row r="212" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A212" s="1" t="s">
+      <c r="B214" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A215" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B212" s="1"/>
-    </row>
-    <row r="213" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A213" s="1" t="s">
+      <c r="B215" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A216" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B213" s="1"/>
-    </row>
-    <row r="214" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A214" s="1" t="s">
+      <c r="B216" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A217" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B214" s="1"/>
-    </row>
-    <row r="215" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A215" s="1" t="s">
+      <c r="B217" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A218" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B215" s="1"/>
-    </row>
-    <row r="216" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A216" s="1" t="s">
+      <c r="B218" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A219" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B216" s="1"/>
-    </row>
-    <row r="217" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A217" s="1" t="s">
+      <c r="B219" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A220" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B217" s="1"/>
-    </row>
-    <row r="218" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A218" s="1" t="s">
+      <c r="B220" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A221" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B218" s="1"/>
-    </row>
-    <row r="219" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A219" s="1" t="s">
+      <c r="B221" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B219" s="1"/>
-    </row>
-    <row r="220" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A220" s="1" t="s">
+      <c r="B222" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A223" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B220" s="1"/>
-    </row>
-    <row r="221" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A221" s="1" t="s">
+      <c r="B223" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A224" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B221" s="1"/>
-    </row>
-    <row r="222" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A222" s="1" t="s">
+      <c r="B224" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A225" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B222" s="1"/>
-    </row>
-    <row r="223" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A223" s="1" t="s">
+      <c r="B225" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A226" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B223" s="1"/>
-    </row>
-    <row r="224" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A224" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B224" s="1"/>
-    </row>
-    <row r="225" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A225" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B225" s="1"/>
-    </row>
-    <row r="226" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A226" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B226" s="1"/>
-    </row>
-    <row r="227" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A227" s="1" t="s">
-        <v>327</v>
-      </c>
+      <c r="B226" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A227" s="1"/>
       <c r="B227" s="1"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D228" s="1"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D229" s="1"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D230" s="1"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A240" s="1"/>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A240" s="3"/>
       <c r="B240" s="1"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A241" s="3"/>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="1"/>
       <c r="B241" s="1"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A96" r:id="rId1" xr:uid="{54F4ADF0-C272-4DA1-8FA1-B72E40D64D45}"/>
-    <hyperlink ref="A156" r:id="rId2" xr:uid="{5F81F4F8-B9B3-4105-B728-F6572AE25CE0}"/>
+    <hyperlink ref="A155" r:id="rId2" xr:uid="{5F81F4F8-B9B3-4105-B728-F6572AE25CE0}"/>
     <hyperlink ref="A112" r:id="rId3" xr:uid="{06595340-D346-43D4-B0D5-50BE165D8FC5}"/>
-    <hyperlink ref="A192" r:id="rId4" xr:uid="{3F98B962-F2CD-4370-A2A9-848D2EB522EE}"/>
+    <hyperlink ref="A191" r:id="rId4" xr:uid="{3F98B962-F2CD-4370-A2A9-848D2EB522EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3148,530 +3614,1143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A895C986-5639-41B7-97E4-8502EF320921}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104:E106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="55.3046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="55.26953125" style="1" customWidth="1"/>
     <col min="2" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>326</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>325</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>325</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>325</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>325</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>324</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>326</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>324</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>326</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>325</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>325</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>325</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>325</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>324</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>324</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
+        <v>326</v>
+      </c>
+      <c r="C40" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
+      <c r="B42" t="s">
+        <v>326</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
+      <c r="B43" t="s">
+        <v>325</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A44" s="1" t="s">
+      <c r="B44" t="s">
+        <v>325</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A45" s="1" t="s">
+      <c r="B45" t="s">
+        <v>325</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
+      <c r="B46" t="s">
+        <v>324</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A47" s="1" t="s">
+      <c r="B47" t="s">
+        <v>324</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
+      <c r="B48" t="s">
+        <v>325</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A49" s="1" t="s">
+      <c r="B49" t="s">
+        <v>326</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A50" s="1" t="s">
+      <c r="B50" t="s">
+        <v>325</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A51" s="1" t="s">
+      <c r="B51" t="s">
+        <v>326</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A52" s="1" t="s">
+      <c r="B52" t="s">
+        <v>324</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A53" s="1" t="s">
+      <c r="B53" t="s">
+        <v>325</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A54" s="1" t="s">
+      <c r="B54" t="s">
+        <v>325</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A55" s="1" t="s">
+      <c r="B55" t="s">
+        <v>324</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B56" t="s">
+        <v>326</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A56" s="1" t="s">
+      <c r="B57" t="s">
+        <v>326</v>
+      </c>
+      <c r="C57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A57" s="1" t="s">
+      <c r="B58" t="s">
+        <v>324</v>
+      </c>
+      <c r="C58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A58" s="1" t="s">
+      <c r="B59" t="s">
+        <v>326</v>
+      </c>
+      <c r="C59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A59" s="1" t="s">
+      <c r="B60" t="s">
+        <v>326</v>
+      </c>
+      <c r="C60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A60" s="1" t="s">
+      <c r="B61" t="s">
+        <v>324</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A61" s="3" t="s">
+      <c r="B62" t="s">
+        <v>324</v>
+      </c>
+      <c r="C62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A62" s="1" t="s">
+      <c r="B63" t="s">
+        <v>324</v>
+      </c>
+      <c r="C63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A63" s="1" t="s">
+      <c r="B64" t="s">
+        <v>325</v>
+      </c>
+      <c r="C64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A64" s="1" t="s">
+      <c r="B65" t="s">
+        <v>325</v>
+      </c>
+      <c r="C65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A65" s="1" t="s">
+      <c r="B66" t="s">
+        <v>324</v>
+      </c>
+      <c r="C66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A66" s="1" t="s">
+      <c r="B67" t="s">
+        <v>325</v>
+      </c>
+      <c r="C67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A67" s="1" t="s">
+      <c r="B68" t="s">
+        <v>326</v>
+      </c>
+      <c r="C68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A68" s="1" t="s">
+      <c r="B69" t="s">
+        <v>324</v>
+      </c>
+      <c r="C69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A69" s="1" t="s">
+      <c r="B70" t="s">
+        <v>325</v>
+      </c>
+      <c r="C70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A70" s="1" t="s">
+      <c r="B71" t="s">
+        <v>325</v>
+      </c>
+      <c r="C71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A71" s="1" t="s">
+      <c r="B72" t="s">
+        <v>326</v>
+      </c>
+      <c r="C72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A72" s="1" t="s">
+      <c r="B73" t="s">
+        <v>325</v>
+      </c>
+      <c r="C73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A73" s="1" t="s">
+      <c r="B74" t="s">
+        <v>324</v>
+      </c>
+      <c r="C74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A74" s="1" t="s">
+      <c r="B75" t="s">
+        <v>324</v>
+      </c>
+      <c r="C75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A75" s="1" t="s">
+      <c r="B76" t="s">
+        <v>325</v>
+      </c>
+      <c r="C76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A76" s="1" t="s">
+      <c r="B77" t="s">
+        <v>325</v>
+      </c>
+      <c r="C77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A77" s="1" t="s">
+      <c r="B78" t="s">
+        <v>325</v>
+      </c>
+      <c r="C78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A78" s="1" t="s">
+      <c r="B79" t="s">
+        <v>325</v>
+      </c>
+      <c r="C79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A79" s="1" t="s">
+      <c r="B80" t="s">
+        <v>324</v>
+      </c>
+      <c r="C80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A80" s="1" t="s">
+      <c r="B81" t="s">
+        <v>324</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A81" s="1" t="s">
+      <c r="B82" t="s">
+        <v>325</v>
+      </c>
+      <c r="C82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A82" s="1" t="s">
+      <c r="B83" t="s">
+        <v>324</v>
+      </c>
+      <c r="C83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A83" s="1" t="s">
+      <c r="B84" t="s">
+        <v>324</v>
+      </c>
+      <c r="C84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A84" s="1" t="s">
+      <c r="B85" t="s">
+        <v>325</v>
+      </c>
+      <c r="C85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A85" s="1" t="s">
+      <c r="B86" t="s">
+        <v>325</v>
+      </c>
+      <c r="C86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A86" s="1" t="s">
+      <c r="B87" t="s">
+        <v>325</v>
+      </c>
+      <c r="C87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A87" s="1" t="s">
+      <c r="B88" t="s">
+        <v>326</v>
+      </c>
+      <c r="C88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A88" s="1" t="s">
+      <c r="B89" t="s">
+        <v>325</v>
+      </c>
+      <c r="C89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A89" s="1" t="s">
+      <c r="B90" t="s">
+        <v>324</v>
+      </c>
+      <c r="C90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A90" s="1" t="s">
+      <c r="B91" t="s">
+        <v>325</v>
+      </c>
+      <c r="C91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A91" s="1" t="s">
+      <c r="B92" t="s">
+        <v>325</v>
+      </c>
+      <c r="C92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A92" s="1" t="s">
+      <c r="B93" t="s">
+        <v>326</v>
+      </c>
+      <c r="C93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A93" s="1" t="s">
+      <c r="B94" t="s">
+        <v>325</v>
+      </c>
+      <c r="C94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A94" s="1" t="s">
+      <c r="B95" t="s">
+        <v>325</v>
+      </c>
+      <c r="C95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A95" s="1" t="s">
+      <c r="B96" t="s">
+        <v>324</v>
+      </c>
+      <c r="C96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A96" s="1" t="s">
+      <c r="B97" t="s">
+        <v>325</v>
+      </c>
+      <c r="C97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A97" s="1" t="s">
+      <c r="B98" t="s">
+        <v>324</v>
+      </c>
+      <c r="C98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A98" s="1" t="s">
+      <c r="B99" t="s">
+        <v>326</v>
+      </c>
+      <c r="C99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A99" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A100" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B100" t="s">
+        <v>325</v>
+      </c>
+      <c r="C100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="B101" t="s">
+        <v>324</v>
+      </c>
+      <c r="C101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E106" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A61" r:id="rId1" xr:uid="{D5864DC2-6911-4832-85F0-7E97A621681A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>